--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB57E82B-CDA0-4715-83F5-866FD7D64391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF6B8C6-CEE5-467A-B561-CF99B19B4B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="915" windowWidth="24090" windowHeight="16245" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24090" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="Key to Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Key to Top Level Folders" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="626">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -271,9 +271,6 @@
     <t>CtIEPpUESoS</t>
   </si>
   <si>
-    <t>EoP</t>
-  </si>
-  <si>
     <t>FLRbI</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>Cost to Implement Efficiency Policy per Unit Energy Saved or Shifted</t>
   </si>
   <si>
-    <t>Elasticities of Production</t>
-  </si>
-  <si>
     <t>Foreign Leakage Rate by Industry</t>
   </si>
   <si>
@@ -1045,9 +1039,6 @@
     <t>BAU Subsidy for Thermal Fuels per Energy Unit Produced, BAU Subsidy per Unit Electricity Output, BAU Subsidy per Unit Electricity Capacity Built</t>
   </si>
   <si>
-    <t>Elasticity of Production wrt Fuel Cost, Perc Change in Production per Unit Carbon Tax due to Nonfuel Impacts</t>
-  </si>
-  <si>
     <t>FoTCAMRBtPF</t>
   </si>
   <si>
@@ -1249,12 +1240,6 @@
     <t>Boolean Are Electricity Prices Affected by Changes in Generating Costs</t>
   </si>
   <si>
-    <t>RoPSoPBvOD</t>
-  </si>
-  <si>
-    <t>Ratio of People Supportable on Plant Based vs Omnivorous Diet</t>
-  </si>
-  <si>
     <t>BSoAIGtAP</t>
   </si>
   <si>
@@ -1612,24 +1597,12 @@
     <t>DLIM</t>
   </si>
   <si>
-    <t>GEbIC</t>
-  </si>
-  <si>
-    <t>HEbIC</t>
-  </si>
-  <si>
     <t>LPGRbIC</t>
   </si>
   <si>
     <t>Domestic Leontief Inverse Matrix</t>
   </si>
   <si>
-    <t>Household Expenditures by ISIC Code</t>
-  </si>
-  <si>
-    <t>Government Expenditures by ISIC Code</t>
-  </si>
-  <si>
     <t>Labor Productivity Growth Rate by ISIC Code</t>
   </si>
   <si>
@@ -1889,6 +1862,54 @@
   </si>
   <si>
     <t>Share of Change in Industry Expenses Passed Through to Buyers</t>
+  </si>
+  <si>
+    <t>SoPEASbRIC</t>
+  </si>
+  <si>
+    <t>Share of Process Emissions Abatement Spending by Recipient ISIC Code</t>
+  </si>
+  <si>
+    <t>EoDfIP</t>
+  </si>
+  <si>
+    <t>Elasticities of Demand for Industrial Products</t>
+  </si>
+  <si>
+    <t>SoHPCCbRIC</t>
+  </si>
+  <si>
+    <t>Share of Hydrogen Production Capital Costs by Recipient ISIC Code</t>
+  </si>
+  <si>
+    <t>HSR</t>
+  </si>
+  <si>
+    <t>Household Savings Rate</t>
+  </si>
+  <si>
+    <t>CoNEPPpCAPS</t>
+  </si>
+  <si>
+    <t>Calories of Nutritionally Equivalent Plant Products per Calorie Animal Products Shifted</t>
+  </si>
+  <si>
+    <t>GaHEbIC</t>
+  </si>
+  <si>
+    <t>Government and Household Expenditures by ISIC Code</t>
+  </si>
+  <si>
+    <t>SIOM</t>
+  </si>
+  <si>
+    <t>Standard Input Output Matrix</t>
+  </si>
+  <si>
+    <t>SoBRCBbG</t>
+  </si>
+  <si>
+    <t>Share of Building Retrofit Costs Borne by Government</t>
   </si>
 </sst>
 </file>
@@ -2450,319 +2471,319 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +2794,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2806,13 +2827,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2820,15 +2841,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G2" s="32"/>
     </row>
@@ -2843,7 +2864,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2851,15 +2872,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G4" s="19"/>
     </row>
@@ -2874,7 +2895,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2888,7 +2909,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2896,16 +2917,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2919,10 +2940,10 @@
         <v>25</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2930,16 +2951,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2953,7 +2974,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2961,16 +2982,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2978,13 +2999,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2998,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3012,7 +3033,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3026,7 +3047,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3034,13 +3055,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3054,7 +3075,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3062,13 +3083,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3082,10 +3103,10 @@
         <v>31</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3099,7 +3120,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3113,10 +3134,10 @@
         <v>33</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3130,7 +3151,7 @@
         <v>34</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3144,7 +3165,7 @@
         <v>35</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3152,16 +3173,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3169,16 +3190,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3186,46 +3207,43 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>606</v>
+        <v>309</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>607</v>
+        <v>310</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="5" t="s">
-        <v>121</v>
+      <c r="F28" s="30" t="s">
+        <v>324</v>
       </c>
       <c r="G28" s="27"/>
     </row>
@@ -3234,319 +3252,322 @@
         <v>9</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="D29" s="27"/>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="F30" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="B31" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>411</v>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>545</v>
+        <v>400</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>546</v>
+        <v>401</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>425</v>
+        <v>536</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>426</v>
+        <v>537</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>319</v>
+        <v>420</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="B41" s="27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C41" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>414</v>
+      <c r="G41" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>514</v>
+        <v>214</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>517</v>
+        <v>215</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
-      <c r="F42" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>512</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>516</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="38" t="s">
-        <v>318</v>
+      <c r="F43" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>557</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>120</v>
+        <v>507</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3554,60 +3575,60 @@
         <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C49" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="F49" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>326</v>
+      <c r="B50" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3615,13 +3636,13 @@
         <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>121</v>
+        <v>182</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3629,44 +3650,44 @@
         <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>409</v>
+        <v>218</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>121</v>
+        <v>57</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3674,13 +3695,13 @@
         <v>44</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>122</v>
+        <v>231</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3688,106 +3709,106 @@
         <v>44</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F59" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>59</v>
+        <v>272</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3795,13 +3816,13 @@
         <v>44</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3809,79 +3830,75 @@
         <v>44</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>387</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>384</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4" t="s">
-        <v>120</v>
+        <v>63</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3889,17 +3906,17 @@
         <v>44</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>363</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>364</v>
+        <v>202</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>365</v>
+        <v>203</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="5" t="s">
-        <v>121</v>
+      <c r="F69" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3907,16 +3924,17 @@
         <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>120</v>
+        <v>360</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3924,47 +3942,50 @@
         <v>44</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>577</v>
+        <v>200</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>578</v>
+        <v>201</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>489</v>
+        <v>568</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>122</v>
+        <v>485</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3972,44 +3993,44 @@
         <v>44</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>335</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>375</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>376</v>
+        <v>64</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4017,61 +4038,61 @@
         <v>44</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>608</v>
+        <v>487</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>215</v>
+        <v>599</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>318</v>
+        <v>212</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4079,13 +4100,13 @@
         <v>44</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>120</v>
+        <v>184</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4093,13 +4114,13 @@
         <v>44</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>121</v>
+        <v>65</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4107,13 +4128,13 @@
         <v>44</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4121,44 +4142,44 @@
         <v>44</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4171,59 +4192,56 @@
       <c r="C87" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F87" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>563</v>
+        <v>252</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>564</v>
+        <v>253</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>230</v>
+        <v>554</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>231</v>
+        <v>555</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>318</v>
+        <v>556</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4231,13 +4249,16 @@
         <v>44</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>120</v>
+        <v>229</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4245,293 +4266,290 @@
         <v>44</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F92" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
+      <c r="F93" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>121</v>
+      <c r="B94" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="E94" s="19"/>
+      <c r="F94" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="F97" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F99" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G102" s="19"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>589</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G103" s="27"/>
+      <c r="F102" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G103" s="19"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>593</v>
-      </c>
+      <c r="B104" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
       <c r="F104" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G104" s="27"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>467</v>
+        <v>582</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>468</v>
+        <v>583</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>69</v>
+        <v>462</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>72</v>
+        <v>463</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>336</v>
+        <v>464</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>391</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>389</v>
+        <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F110" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>486</v>
+        <v>387</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4539,16 +4557,16 @@
         <v>68</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F111" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4556,309 +4574,315 @@
         <v>68</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B114" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="E114" s="27"/>
-      <c r="F114" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G114" s="27"/>
-    </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F114" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="D115" s="27"/>
+        <v>418</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>419</v>
+      </c>
       <c r="E115" s="27"/>
-      <c r="F115" s="37" t="s">
-        <v>120</v>
+      <c r="F115" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="G115" s="27"/>
     </row>
-    <row r="116" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="E117" s="33"/>
-      <c r="F117" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G117" s="33"/>
-    </row>
-    <row r="118" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="B116" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G116" s="27"/>
+    </row>
+    <row r="117" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="E118" s="33"/>
+      <c r="F118" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G118" s="33"/>
     </row>
     <row r="119" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>121</v>
+        <v>448</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B122" s="13" t="s">
-        <v>450</v>
-      </c>
       <c r="C122" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G125" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="C124" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G124" s="24" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    </row>
+    <row r="126" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G126" s="24"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="27" t="s">
+      <c r="B127" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B126" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G126" s="27"/>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="27" t="s">
+      <c r="B128" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G128" s="27"/>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B127" s="27" t="s">
+      <c r="B129" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C127" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D127" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="E127" s="27"/>
-      <c r="F127" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="G127" s="27"/>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F128" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="C129" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="E129" s="27"/>
+      <c r="F129" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="G129" s="27"/>
     </row>
     <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>121</v>
+        <v>247</v>
+      </c>
+      <c r="F130" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4866,49 +4890,41 @@
         <v>76</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F132" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>548</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="6" t="s">
-        <v>122</v>
+        <v>83</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4916,58 +4932,60 @@
         <v>76</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>250</v>
+        <v>612</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F135" s="30" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>241</v>
+        <v>539</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>122</v>
+        <v>249</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4975,13 +4993,16 @@
         <v>76</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>122</v>
+        <v>85</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F138" s="30" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4989,30 +5010,27 @@
         <v>76</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F140" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>477</v>
+        <v>352</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5020,1184 +5038,1251 @@
         <v>76</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>121</v>
+        <v>353</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="27" t="s">
+      <c r="A142" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B142" s="27" t="s">
-        <v>596</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>595</v>
-      </c>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="G142" s="27"/>
-    </row>
-    <row r="143" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="19" t="s">
+      <c r="B142" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B143" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>618</v>
-      </c>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G143" s="19"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
-        <v>523</v>
+        <v>76</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="D144" s="27"/>
       <c r="E144" s="27"/>
-      <c r="F144" s="4" t="s">
-        <v>120</v>
+      <c r="F144" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="G144" s="27"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
-        <v>523</v>
+        <v>76</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="D145" s="27"/>
       <c r="E145" s="27"/>
-      <c r="F145" s="4" t="s">
-        <v>120</v>
+      <c r="F145" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="G145" s="27"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="B146" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G146" s="32"/>
+    <row r="146" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G146" s="19"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="D147" s="27"/>
       <c r="E147" s="27"/>
       <c r="F147" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G147" s="27"/>
     </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="C148" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>576</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="D148" s="27"/>
       <c r="E148" s="27"/>
       <c r="F148" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G148" s="27"/>
     </row>
-    <row r="149" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="B149" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="C149" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="F149" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G149" s="32"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="B150" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G150" s="32"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G150" s="27"/>
+    </row>
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="D151" s="27"/>
+        <v>566</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>567</v>
+      </c>
       <c r="E151" s="27"/>
       <c r="F151" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G151" s="27"/>
     </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>613</v>
+        <v>534</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G152" s="27"/>
+        <v>535</v>
+      </c>
+      <c r="F152" s="37" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>599</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="D153" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="E153" s="27"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="27"/>
+        <v>518</v>
+      </c>
+      <c r="B153" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G153" s="32"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D154" s="27"/>
       <c r="E154" s="27"/>
       <c r="F154" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G154" s="27"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>530</v>
+        <v>605</v>
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="27"/>
       <c r="F155" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G155" s="27"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="D156" s="27"/>
+        <v>591</v>
+      </c>
+      <c r="D156" s="27" t="s">
+        <v>592</v>
+      </c>
       <c r="E156" s="27"/>
-      <c r="F156" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="F156" s="4"/>
       <c r="G156" s="27"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="6" t="s">
-        <v>122</v>
+      <c r="E157" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="G157" s="27"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="27"/>
       <c r="F158" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G158" s="27"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C159" s="27" t="s">
         <v>523</v>
-      </c>
-      <c r="B159" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>534</v>
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="27"/>
-      <c r="F159" s="35" t="s">
-        <v>122</v>
+      <c r="F159" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="G159" s="27"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="21" t="s">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G160" s="19"/>
-    </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="G160" s="27"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
       <c r="F161" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G161" s="27"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F162" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F164" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>433</v>
-      </c>
+      <c r="A162" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="C162" s="27" t="s">
+        <v>623</v>
+      </c>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G162" s="27"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G163" s="27"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G164" s="19"/>
     </row>
     <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>122</v>
+      <c r="F166" s="14" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F167" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B173" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F168" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="22" t="s">
+      <c r="C173" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G173" s="19"/>
+    </row>
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F174" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G169" s="19"/>
-    </row>
-    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G172" s="19" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>122</v>
+      <c r="G174" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>510</v>
+        <v>241</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G176" s="19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>324</v>
+        <v>91</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C178" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F178" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F178" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>296</v>
+        <v>505</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>122</v>
+        <v>506</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>122</v>
+        <v>281</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>122</v>
+        <v>279</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>430</v>
+        <v>282</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>122</v>
+        <v>283</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A187" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>417</v>
+        <v>291</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>428</v>
+        <v>286</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>121</v>
+        <v>287</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>95</v>
+        <v>425</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>104</v>
+        <v>426</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>96</v>
+        <v>305</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F190" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F191" s="6" t="s">
-        <v>122</v>
+        <v>306</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A191" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>107</v>
+        <v>424</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>559</v>
+        <v>93</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>597</v>
+        <v>94</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>121</v>
+        <v>103</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F195" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F196" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>370</v>
+        <v>550</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F197" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>305</v>
+        <v>588</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F198" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>418</v>
+        <v>589</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="F201" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>554</v>
+        <v>296</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>464</v>
+        <v>297</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F205" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>374</v>
+        <v>99</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>309</v>
+        <v>545</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>121</v>
+        <v>546</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>122</v>
+        <v>302</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F209" s="14" t="s">
-        <v>318</v>
+        <v>312</v>
+      </c>
+      <c r="F209" s="16" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>278</v>
+        <v>371</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>279</v>
+        <v>370</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B211" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="C211" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G211" s="19"/>
-    </row>
-    <row r="212" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D215" s="19"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G215" s="19"/>
+    </row>
+    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B214" s="2" t="s">
+      <c r="D216" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F215" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B216" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="C216" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D216" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="E216" s="19"/>
-      <c r="F216" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G216" s="19"/>
+      <c r="F218" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D220" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="E220" s="19"/>
+      <c r="F220" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G220" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6225,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6233,7 +6318,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6241,7 +6326,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6249,31 +6334,31 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6281,7 +6366,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6289,15 +6374,15 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6305,23 +6390,23 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B13" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6329,47 +6414,47 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF6B8C6-CEE5-467A-B561-CF99B19B4B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A3D4C-57B2-4CBF-B010-8B73A6A93F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24090" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="Key to Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Key to Top Level Folders" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="635">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -328,9 +328,6 @@
     <t>FoVObE</t>
   </si>
   <si>
-    <t>PCiCDTdtTDM</t>
-  </si>
-  <si>
     <t>PTFURfE</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>Fraction of Vehicles Owned by Entity</t>
   </si>
   <si>
-    <t>Perc Change in Cargo Dist Transported due to TDM</t>
-  </si>
-  <si>
     <t>Percentage Transportation Fuel Use Reduction for Electricity</t>
   </si>
   <si>
@@ -1264,9 +1258,6 @@
     <t>You wish to use 20-year GWP values instead of 100-year GWP values for GHGs (other than F-gases)</t>
   </si>
   <si>
-    <t>You wish to include the emissions associated with the generation of imported electricity (which occur outside the modeled region) in the modeled region's emissions outputs</t>
-  </si>
-  <si>
     <t>You want carbon pricing to only apply to energy-related emissions, exempting non-energy emissions associated with industrial, agricultural, and waste management operations</t>
   </si>
   <si>
@@ -1910,6 +1901,42 @@
   </si>
   <si>
     <t>Share of Building Retrofit Costs Borne by Government</t>
+  </si>
+  <si>
+    <t>RTMF</t>
+  </si>
+  <si>
+    <t>Recipient Transportation Mode Fractions</t>
+  </si>
+  <si>
+    <t>BIEfEE</t>
+  </si>
+  <si>
+    <t>Boolean Include Emissions from Exported Electricity</t>
+  </si>
+  <si>
+    <t>You wish to include the emissions associated with the generation of exported electricity (which occur inside the modeled region) from the modeled region's emissions outputs.  (The default is enabled.)</t>
+  </si>
+  <si>
+    <t>You wish to include the emissions associated with the generation of imported electricity (which occur outside the modeled region) in the modeled region's emissions outputs  (The default is disabled.)</t>
+  </si>
+  <si>
+    <t>SoTCCbIC</t>
+  </si>
+  <si>
+    <t>Share of Transmission Capital Costs by ISIC Code</t>
+  </si>
+  <si>
+    <t>CRbQ</t>
+  </si>
+  <si>
+    <t>Capacity Retirements before Quantization</t>
+  </si>
+  <si>
+    <t>You wish to switch from the BAU plant retirement schedule to an alternative schedule you have specified in input data (rather than using the early retirement policy lever, which accelerates retirements and is additive to the BAU retirements)</t>
+  </si>
+  <si>
+    <t>BAU Fraction of CCS Potential Achieved by Electricity Sector, BAU Fraction of CCS Potential Achieved by Industry Sector</t>
   </si>
 </sst>
 </file>
@@ -2471,319 +2498,319 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2827,13 +2854,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2841,15 +2868,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="32"/>
     </row>
@@ -2864,7 +2891,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2872,15 +2899,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G4" s="19"/>
     </row>
@@ -2895,7 +2922,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2909,7 +2936,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2917,16 +2944,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2940,10 +2967,10 @@
         <v>25</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2951,16 +2978,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,7 +3001,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2982,16 +3009,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2999,13 +3026,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3033,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,7 +3074,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3055,13 +3082,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,7 +3102,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3083,13 +3110,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3103,10 +3130,10 @@
         <v>31</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3120,7 +3147,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3134,10 +3161,10 @@
         <v>33</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3151,7 +3178,7 @@
         <v>34</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3165,7 +3192,7 @@
         <v>35</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3173,16 +3200,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3190,16 +3217,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3207,13 +3234,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3221,13 +3248,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3235,15 +3262,15 @@
         <v>9</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G28" s="27"/>
     </row>
@@ -3252,15 +3279,15 @@
         <v>9</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G29" s="27"/>
     </row>
@@ -3269,17 +3296,17 @@
         <v>9</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G30" s="27"/>
     </row>
@@ -3288,34 +3315,36 @@
         <v>9</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="D32" s="27"/>
+        <v>498</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>634</v>
+      </c>
       <c r="E32" s="27"/>
       <c r="F32" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G32" s="27"/>
     </row>
@@ -3327,13 +3356,13 @@
         <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3341,23 +3370,23 @@
         <v>36</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>5</v>
@@ -3368,220 +3397,223 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>332</v>
+        <v>625</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>333</v>
+        <v>626</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="B42" s="27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>409</v>
+      <c r="G42" s="2" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>509</v>
+        <v>212</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>512</v>
+        <v>213</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="38" t="s">
-        <v>316</v>
+      <c r="F44" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-    </row>
-    <row r="45" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>118</v>
+      <c r="C45" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3589,60 +3621,60 @@
         <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C50" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="F50" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>324</v>
+      <c r="B51" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3650,13 +3682,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>119</v>
+        <v>180</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3664,44 +3696,44 @@
         <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>404</v>
+        <v>216</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>119</v>
+        <v>57</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,13 +3741,13 @@
         <v>44</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>120</v>
+        <v>229</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3723,106 +3755,106 @@
         <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>59</v>
+        <v>270</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>118</v>
+        <v>60</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3830,13 +3862,13 @@
         <v>44</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3844,97 +3876,92 @@
         <v>44</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>384</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>631</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>63</v>
+        <v>632</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>382</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>360</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>119</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3942,16 +3969,17 @@
         <v>44</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>549</v>
-      </c>
+      <c r="E71" s="3"/>
       <c r="F71" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3959,33 +3987,34 @@
         <v>44</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>484</v>
+        <v>198</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>486</v>
+        <v>199</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3993,134 +4022,140 @@
         <v>44</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>513</v>
+        <v>566</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>487</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>488</v>
+        <v>64</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>599</v>
+        <v>370</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>213</v>
+        <v>484</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>183</v>
+        <v>596</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>118</v>
+        <v>210</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4128,13 +4163,13 @@
         <v>44</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>119</v>
+        <v>182</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4142,13 +4177,13 @@
         <v>44</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>119</v>
+        <v>65</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4156,30 +4191,27 @@
         <v>44</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>399</v>
+        <v>205</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4187,61 +4219,58 @@
         <v>44</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F88" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G88" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>554</v>
+        <v>221</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>556</v>
+        <v>222</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4249,324 +4278,324 @@
         <v>44</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>198</v>
+        <v>551</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="19" t="s">
+      <c r="F96" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B97" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G97" s="19" t="s">
         <v>429</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="G94" s="19" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>516</v>
+        <v>339</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>120</v>
+        <v>340</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" s="19"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" s="27"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>68</v>
+        <v>341</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>582</v>
+        <v>219</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>334</v>
-      </c>
+      <c r="B107" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
       <c r="F107" s="4" t="s">
-        <v>118</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G107" s="27"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>388</v>
+        <v>579</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>459</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>386</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F111" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>481</v>
+        <v>387</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4574,404 +4603,405 @@
         <v>68</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>476</v>
+        <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>378</v>
+        <v>73</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>472</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B115" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="E115" s="27"/>
-      <c r="F115" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G115" s="27"/>
+      <c r="B115" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B116" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="C116" s="27" t="s">
+      <c r="B116" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G116" s="27"/>
-    </row>
-    <row r="117" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>543</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F117" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="E118" s="27"/>
+      <c r="F118" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G118" s="27"/>
+    </row>
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G119" s="27"/>
+    </row>
+    <row r="120" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="C121" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="B118" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="D118" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="E118" s="33"/>
-      <c r="F118" s="21" t="s">
+      <c r="D121" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="E121" s="33"/>
+      <c r="F121" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G121" s="33"/>
+    </row>
+    <row r="122" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G118" s="33"/>
-    </row>
-    <row r="119" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
+    </row>
+    <row r="123" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="B119" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>445</v>
-      </c>
       <c r="C123" s="13" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C124" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G127" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="C125" s="29" t="s">
+    </row>
+    <row r="128" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G128" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="G125" s="29" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>615</v>
-      </c>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G126" s="24"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G128" s="27"/>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="G129" s="27"/>
-    </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G129" s="24"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F130" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="B131" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G131" s="27"/>
     </row>
     <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="B132" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E132" s="27"/>
+      <c r="F132" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="G132" s="27"/>
     </row>
     <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>612</v>
+        <v>400</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>613</v>
+        <v>401</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F135" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>539</v>
+        <v>78</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="6" t="s">
-        <v>120</v>
+        <v>83</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4979,58 +5009,60 @@
         <v>76</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>248</v>
+        <v>609</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F138" s="30" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>239</v>
+        <v>536</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>120</v>
+        <v>247</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5038,13 +5070,16 @@
         <v>76</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>120</v>
+        <v>85</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F141" s="30" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5052,618 +5087,618 @@
         <v>76</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F143" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="27" t="s">
+      <c r="F146" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B144" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G144" s="27"/>
-    </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G145" s="27"/>
-    </row>
-    <row r="146" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G146" s="19"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="27" t="s">
-        <v>518</v>
-      </c>
       <c r="B147" s="27" t="s">
-        <v>528</v>
+        <v>584</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>529</v>
+        <v>583</v>
       </c>
       <c r="D147" s="27"/>
       <c r="E147" s="27"/>
-      <c r="F147" s="4" t="s">
-        <v>118</v>
+      <c r="F147" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="G147" s="27"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
-        <v>518</v>
+        <v>76</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>530</v>
+        <v>605</v>
       </c>
       <c r="C148" s="27" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="D148" s="27"/>
       <c r="E148" s="27"/>
-      <c r="F148" s="4" t="s">
-        <v>118</v>
+      <c r="F148" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="G148" s="27"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="B149" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="D149" s="32"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G149" s="32"/>
+    <row r="149" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G149" s="19"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D150" s="27"/>
       <c r="E150" s="27"/>
       <c r="F150" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G150" s="27"/>
     </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="D151" s="27" t="s">
-        <v>567</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="D151" s="27"/>
       <c r="E151" s="27"/>
       <c r="F151" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G151" s="27"/>
     </row>
-    <row r="152" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>535</v>
-      </c>
-      <c r="F152" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G152" s="32"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="B153" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G153" s="32"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G153" s="27"/>
+    </row>
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="D154" s="27"/>
+        <v>563</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>564</v>
+      </c>
       <c r="E154" s="27"/>
       <c r="F154" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G154" s="27"/>
     </row>
-    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>604</v>
+        <v>531</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G155" s="27"/>
+        <v>532</v>
+      </c>
+      <c r="F155" s="37" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>591</v>
-      </c>
-      <c r="D156" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="E156" s="27"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="27"/>
-    </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G156" s="32"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>620</v>
+        <v>517</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>621</v>
+        <v>519</v>
       </c>
       <c r="D157" s="27"/>
-      <c r="E157" s="27" t="s">
-        <v>520</v>
-      </c>
+      <c r="E157" s="27"/>
       <c r="F157" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G157" s="27"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="27"/>
-      <c r="F158" s="6" t="s">
-        <v>120</v>
+      <c r="F158" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="G158" s="27"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="D159" s="27"/>
+        <v>588</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>589</v>
+      </c>
       <c r="E159" s="27"/>
-      <c r="F159" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="F159" s="4"/>
       <c r="G159" s="27"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>577</v>
+        <v>618</v>
       </c>
       <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="6" t="s">
-        <v>120</v>
+      <c r="E160" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="G160" s="27"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27"/>
       <c r="F161" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G161" s="27"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B162" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="B162" s="27" t="s">
-        <v>622</v>
-      </c>
       <c r="C162" s="27" t="s">
-        <v>623</v>
+        <v>520</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27"/>
-      <c r="F162" s="4" t="s">
+      <c r="F162" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G162" s="27"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>524</v>
+        <v>573</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27"/>
-      <c r="F163" s="35" t="s">
-        <v>120</v>
+      <c r="F163" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G163" s="27"/>
     </row>
-    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="B164" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="21" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="C164" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G164" s="19"/>
-    </row>
-    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="G164" s="27"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G165" s="27"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F166" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="A166" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G166" s="27"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G167" s="19"/>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F168" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F169" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>118</v>
+        <v>261</v>
+      </c>
+      <c r="F171" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B173" s="19" t="s">
+      <c r="F172" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C173" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G173" s="19"/>
+      <c r="F173" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>407</v>
+        <v>266</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="19" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
-      <c r="F176" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G176" s="19" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F176" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G176" s="19"/>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F177" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F177" s="7" t="s">
         <v>119</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>119</v>
+        <v>241</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G179" s="19" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5671,26 +5706,26 @@
         <v>90</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>355</v>
+        <v>91</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F181" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F181" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5699,44 +5734,41 @@
         <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>280</v>
+        <v>502</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5744,41 +5776,44 @@
         <v>90</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>300</v>
+        <v>277</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5786,13 +5821,13 @@
         <v>90</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>120</v>
+        <v>281</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5800,44 +5835,41 @@
         <v>90</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>425</v>
+        <v>288</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>426</v>
+        <v>289</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A191" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B191" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>412</v>
+      <c r="B191" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5845,13 +5877,13 @@
         <v>90</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>119</v>
+      <c r="F192" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,27 +5891,30 @@
         <v>90</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>93</v>
+        <v>303</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>120</v>
+      <c r="B194" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5887,13 +5922,13 @@
         <v>90</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>95</v>
+        <v>420</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>120</v>
+        <v>421</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5901,13 +5936,13 @@
         <v>90</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>119</v>
+        <v>101</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5915,13 +5950,13 @@
         <v>90</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>550</v>
+        <v>94</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5929,13 +5964,13 @@
         <v>90</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>588</v>
+        <v>95</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5943,174 +5978,171 @@
         <v>90</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F200" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>367</v>
+        <v>585</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F201" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F202" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="F203" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F204" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F204" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="F205" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>545</v>
+        <v>286</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>311</v>
+        <v>542</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F209" s="16" t="s">
-        <v>324</v>
+        <v>543</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6118,27 +6150,30 @@
         <v>90</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>371</v>
+        <v>623</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>370</v>
+        <v>624</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6146,13 +6181,13 @@
         <v>90</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>120</v>
+        <v>310</v>
+      </c>
+      <c r="F212" s="16" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6160,129 +6195,171 @@
         <v>90</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B215" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="C215" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G215" s="19"/>
-    </row>
-    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B215" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>120</v>
+        <v>283</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G218" s="19"/>
+    </row>
+    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F217" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B218" s="2" t="s">
+      <c r="D219" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F218" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F219" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B220" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="D220" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="E220" s="19"/>
-      <c r="F220" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G220" s="19"/>
+      <c r="F221" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="E223" s="19"/>
+      <c r="F223" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G223" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6310,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6318,7 +6395,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6326,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6334,31 +6411,31 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6366,7 +6443,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6374,15 +6451,15 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6390,23 +6467,23 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6414,23 +6491,23 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6438,7 +6515,7 @@
         <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6446,15 +6523,15 @@
         <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CC1E9-0943-416B-8E2D-F1243AAEE080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD8C04-7187-4F7D-AEBA-76C1921E8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="768">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2104,12 +2104,6 @@
     <t>Fraction of EVs Used for Grid Balancing on Average Day, Fraction of EV Battery Capacity Used for Grid Balancing when EV is Used for Grid Balancing</t>
   </si>
   <si>
-    <t>DATAiRC</t>
-  </si>
-  <si>
-    <t>Demand-Altering Technology Assistance in RPS Compliance</t>
-  </si>
-  <si>
     <t>CCSTaSC</t>
   </si>
   <si>
@@ -2134,15 +2128,6 @@
     <t>Non-Battery Portion of New Vehicle Prices</t>
   </si>
   <si>
-    <t>SoEIaEbH</t>
-  </si>
-  <si>
-    <t>Share of Electricity Imports and Exports by Hour</t>
-  </si>
-  <si>
-    <t>Share of Electricity Imports by Hour, Share of Electricity Exports by Hour</t>
-  </si>
-  <si>
     <t>CO2 Capture Potential by Electricity Source, CO2 Capture Potential by Industry,CO2 Capture Potential by Hydrogen Sector</t>
   </si>
   <si>
@@ -2239,12 +2224,6 @@
     <t>BAU Heat Rates, BAU Start Year Capacities</t>
   </si>
   <si>
-    <t>BRACP</t>
-  </si>
-  <si>
-    <t>BAU RPS Alternative Compliance Payment</t>
-  </si>
-  <si>
     <t>Annual CapEx per Unit Capacity, BAU Construction Cost per Unit Capacity, Annual Fixed O&amp;M Cost per Unit Capacity, Variable O&amp;M Cost per Unit Elec Output, BAU Soft Costs per Unit Capacity, Annual CapEx per Unit Capacity, Spur Line Construction Cost per Unit Capacity, BAU CCS Retrofit Costs per Unit Capacity</t>
   </si>
   <si>
@@ -2260,9 +2239,6 @@
     <t>Capacity Supply Curve</t>
   </si>
   <si>
-    <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year</t>
-  </si>
-  <si>
     <t>Electricity Dispatch Weibull Parameter A, Electricity Dispatch Weibull Parameter B</t>
   </si>
   <si>
@@ -2306,6 +2282,60 @@
   </si>
   <si>
     <t>Policy Vehicle Types Subject to LCFS</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>Future Year</t>
+  </si>
+  <si>
+    <t>If you change Initial Time, you need to update this file</t>
+  </si>
+  <si>
+    <t>RACP</t>
+  </si>
+  <si>
+    <t>RPS Alternative Compliance Payment</t>
+  </si>
+  <si>
+    <t>MaMHEIaE</t>
+  </si>
+  <si>
+    <t>Max and Min Hourly Electriicty Imports and Exports</t>
+  </si>
+  <si>
+    <t>BPMCRS</t>
+  </si>
+  <si>
+    <t>BAU Policy Mandated Capacity Retrofit Schedule</t>
+  </si>
+  <si>
+    <t>You know particular capacities of particular types of plants will be retrofit with CCUS in particular years (for example, they are already under construction), or you are modeling a region where power plant retrofit decisions are based on government mandates rather than being market-driven</t>
+  </si>
+  <si>
+    <t>PMCRS</t>
+  </si>
+  <si>
+    <t>Policy Mandated Capacity Retrofit Schedule</t>
+  </si>
+  <si>
+    <t>You are modeling a region where power plant CCUS retrofit decisions are based on government mandates rather than being market-driven, and you are setting this policy lever to alter the BAU mandates</t>
+  </si>
+  <si>
+    <t>goeeng</t>
+  </si>
+  <si>
+    <t>ERWD</t>
+  </si>
+  <si>
+    <t>Enhanced Rock Weathering Data</t>
+  </si>
+  <si>
+    <t>Enhanced Rock Weathering Potential, Enhanced Rock Weathering Energy Intensity, Enhanced Rock Weathering Amortized CapEx and OM</t>
+  </si>
+  <si>
+    <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year, Capacity Supply Curve Share of Cost Effective Hybrid Capacity Built in a Single Year</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2404,22 +2434,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2476,10 +2495,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2793,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -3127,11 +3149,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A250" sqref="A250:F250"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,7 +3206,7 @@
       <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>541</v>
       </c>
     </row>
@@ -3300,10 +3322,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>99</v>
@@ -3693,13 +3715,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>101</v>
@@ -3710,10 +3732,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>
@@ -3730,7 +3752,7 @@
         <v>417</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>101</v>
@@ -3747,7 +3769,7 @@
         <v>410</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>101</v>
@@ -3758,10 +3780,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>101</v>
@@ -3772,10 +3794,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>100</v>
@@ -3789,7 +3811,7 @@
         <v>575</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>100</v>
@@ -3844,7 +3866,7 @@
         <v>142</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3937,16 +3959,16 @@
         <v>413</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4062,50 +4084,52 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="E59" s="17"/>
+      <c r="D59" s="2" t="s">
+        <v>726</v>
+      </c>
       <c r="F59" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>99</v>
-      </c>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>99</v>
@@ -4116,13 +4140,13 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>100</v>
+        <v>202</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4130,49 +4154,46 @@
         <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>546</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>547</v>
+        <v>42</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="21" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G65" s="17" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4180,61 +4201,61 @@
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>181</v>
+        <v>658</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>732</v>
+        <v>659</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>604</v>
+        <v>328</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>687</v>
+        <v>604</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>100</v>
+        <v>603</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4242,33 +4263,33 @@
         <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>175</v>
+        <v>687</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>595</v>
+        <v>175</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>250</v>
+        <v>174</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4276,103 +4297,109 @@
         <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>595</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>696</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>203</v>
+        <v>695</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>695</v>
+        <v>678</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>160</v>
+        <v>692</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>693</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>99</v>
@@ -4383,92 +4410,92 @@
         <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>661</v>
+        <v>160</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>661</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>737</v>
+        <v>662</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>738</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>739</v>
+        <v>52</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>513</v>
+        <v>731</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>740</v>
+        <v>513</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>690</v>
+        <v>733</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>258</v>
+        <v>734</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4504,10 +4531,10 @@
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>100</v>
@@ -4524,7 +4551,7 @@
         <v>171</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>99</v>
@@ -4558,7 +4585,7 @@
         <v>664</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>101</v>
@@ -4617,10 +4644,10 @@
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>101</v>
@@ -4637,7 +4664,7 @@
         <v>490</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>99</v>
@@ -4665,10 +4692,10 @@
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>100</v>
@@ -4679,10 +4706,10 @@
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>100</v>
@@ -4721,13 +4748,13 @@
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>597</v>
+        <v>755</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>100</v>
+        <v>756</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4735,10 +4762,10 @@
         <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>665</v>
+        <v>597</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>666</v>
+        <v>598</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>100</v>
@@ -4749,13 +4776,13 @@
         <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>48</v>
+        <v>665</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>99</v>
+        <v>666</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4763,137 +4790,140 @@
         <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>672</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>186</v>
+        <v>760</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>580</v>
+        <v>672</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>684</v>
+        <v>580</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>601</v>
+        <v>203</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>602</v>
+        <v>204</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B112" s="2" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>258</v>
+        <v>685</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4901,47 +4931,44 @@
         <v>43</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>700</v>
+        <v>601</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>702</v>
+        <v>605</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>452</v>
+        <v>670</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>682</v>
+        <v>452</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>258</v>
+        <v>453</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4949,13 +4976,13 @@
         <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>100</v>
+        <v>683</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4963,10 +4990,10 @@
         <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>100</v>
@@ -4977,27 +5004,27 @@
         <v>43</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>99</v>
+        <v>576</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5005,30 +5032,27 @@
         <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>749</v>
+        <v>599</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>751</v>
+        <v>600</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>99</v>
@@ -5039,51 +5063,51 @@
         <v>43</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C124" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D124" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E123" s="17"/>
-      <c r="F123" s="21" t="s">
+      <c r="E124" s="17"/>
+      <c r="F124" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G123" s="17" t="s">
+      <c r="G124" s="17" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5091,117 +5115,117 @@
         <v>275</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>418</v>
+        <v>271</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="17" t="s">
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B131" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C131" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="20" t="s">
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G130" s="17"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>99</v>
@@ -5212,44 +5236,47 @@
         <v>55</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>380</v>
+        <v>473</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>381</v>
+        <v>474</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>56</v>
+        <v>380</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5257,13 +5284,10 @@
         <v>55</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>526</v>
+        <v>313</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>528</v>
+        <v>314</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>101</v>
@@ -5274,13 +5298,16 @@
         <v>55</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>99</v>
+        <v>527</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5288,61 +5315,58 @@
         <v>55</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>610</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>390</v>
+        <v>311</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F141" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>396</v>
+        <v>312</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5350,16 +5374,16 @@
         <v>55</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5367,128 +5391,132 @@
         <v>55</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F143" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>376</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B148" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C148" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="F148" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G148" s="17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="24" t="s">
+    <row r="149" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B149" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C149" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D149" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E148" s="24"/>
-      <c r="F148" s="19" t="s">
+      <c r="F149" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="G148" s="24"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>100</v>
+    </row>
+    <row r="150" spans="1:7" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5496,61 +5524,58 @@
         <v>357</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5558,81 +5583,78 @@
         <v>357</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="F157" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="17" t="s">
+    <row r="158" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B158" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C158" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="20" t="s">
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G156" s="17"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G158" s="17"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>667</v>
+        <v>206</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>100</v>
+        <v>207</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5640,19 +5662,16 @@
         <v>63</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>197</v>
+        <v>519</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F160" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>339</v>
+        <v>520</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5660,13 +5679,16 @@
         <v>63</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>326</v>
+        <v>667</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>101</v>
+        <v>668</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5674,44 +5696,47 @@
         <v>63</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>497</v>
+        <v>326</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>498</v>
+        <v>327</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F164" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>345</v>
+        <v>67</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5719,30 +5744,30 @@
         <v>63</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>516</v>
+        <v>65</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>518</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5750,41 +5775,41 @@
         <v>63</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>199</v>
+        <v>563</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>66</v>
+        <v>516</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F168" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>100</v>
@@ -5795,13 +5820,16 @@
         <v>63</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5809,13 +5837,13 @@
         <v>63</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>101</v>
+        <v>191</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5823,13 +5851,13 @@
         <v>63</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>100</v>
+        <v>280</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5837,10 +5865,10 @@
         <v>63</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>568</v>
+        <v>278</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>569</v>
+        <v>281</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>101</v>
@@ -5851,10 +5879,10 @@
         <v>63</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>477</v>
+        <v>279</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>476</v>
+        <v>282</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>100</v>
@@ -5865,75 +5893,72 @@
         <v>63</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F175" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B176" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G176" s="17"/>
     </row>
     <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G178" s="17"/>
+    </row>
+    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>428</v>
+        <v>560</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>429</v>
+        <v>561</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>99</v>
@@ -5944,10 +5969,13 @@
         <v>420</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>430</v>
+        <v>716</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>431</v>
+        <v>717</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>99</v>
@@ -5958,10 +5986,10 @@
         <v>420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>99</v>
@@ -5972,30 +6000,24 @@
         <v>420</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>616</v>
+        <v>401</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>99</v>
@@ -6006,76 +6028,78 @@
         <v>420</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>422</v>
+        <v>616</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>424</v>
+        <v>618</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>531</v>
+        <v>434</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F186" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F187" s="3"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>142</v>
+        <v>532</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6083,44 +6107,48 @@
         <v>420</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F189" s="3"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>101</v>
+        <v>504</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6128,10 +6156,10 @@
         <v>420</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>101</v>
@@ -6142,10 +6170,10 @@
         <v>420</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>101</v>
@@ -6156,123 +6184,120 @@
         <v>420</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>542</v>
+        <v>423</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F195" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F197" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F196" s="19" t="s">
+      <c r="F198" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="17" t="s">
+    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B197" s="17" t="s">
+      <c r="B199" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C199" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="19" t="s">
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G197" s="17"/>
-    </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F199" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="G199" s="17"/>
     </row>
     <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F201" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>346</v>
+        <v>305</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6280,27 +6305,30 @@
         <v>93</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>101</v>
+        <v>214</v>
+      </c>
+      <c r="F203" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6308,139 +6336,142 @@
         <v>93</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B206" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
-      <c r="F206" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G206" s="17"/>
+      <c r="B206" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G208" s="17"/>
+    </row>
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F207" s="6" t="s">
+      <c r="F209" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G207" s="2" t="s">
+      <c r="G209" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F208" s="6" t="s">
+      <c r="F210" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="G210" s="2" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B209" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
-      <c r="F209" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G209" s="17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>551</v>
+        <v>750</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>100</v>
+        <v>751</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D212" s="17"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G212" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6448,24 +6479,24 @@
         <v>73</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>75</v>
+        <v>635</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>101</v>
@@ -6476,10 +6507,10 @@
         <v>73</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>100</v>
@@ -6490,24 +6521,24 @@
         <v>73</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>680</v>
+        <v>75</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>101</v>
@@ -6518,41 +6549,38 @@
         <v>73</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>256</v>
+        <v>680</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>236</v>
+        <v>553</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>379</v>
+        <v>554</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>101</v>
@@ -6563,38 +6591,41 @@
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>621</v>
+        <v>283</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F221" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>623</v>
+        <v>256</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>101</v>
@@ -6605,10 +6636,10 @@
         <v>73</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>228</v>
+        <v>621</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>229</v>
+        <v>622</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>101</v>
@@ -6619,13 +6650,10 @@
         <v>73</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>101</v>
@@ -6636,10 +6664,10 @@
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>625</v>
+        <v>232</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>626</v>
+        <v>233</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>101</v>
@@ -6650,13 +6678,13 @@
         <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>718</v>
+        <v>228</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>99</v>
+        <v>229</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6664,13 +6692,16 @@
         <v>73</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>99</v>
+        <v>638</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6678,13 +6709,13 @@
         <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>99</v>
+        <v>626</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6692,13 +6723,13 @@
         <v>73</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>590</v>
+        <v>713</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>100</v>
+        <v>714</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6706,30 +6737,27 @@
         <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>241</v>
+        <v>640</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>285</v>
+        <v>612</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>334</v>
+        <v>613</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6737,13 +6765,13 @@
         <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>76</v>
+        <v>590</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>101</v>
+        <v>591</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6751,27 +6779,30 @@
         <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F235" s="5" t="s">
-        <v>101</v>
+        <v>286</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6779,27 +6810,24 @@
         <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>627</v>
+        <v>77</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>629</v>
+        <v>85</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>101</v>
@@ -6810,13 +6838,13 @@
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6824,10 +6852,10 @@
         <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>479</v>
+        <v>87</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>100</v>
@@ -6838,10 +6866,13 @@
         <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>643</v>
+        <v>628</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>101</v>
@@ -6852,13 +6883,13 @@
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>752</v>
+        <v>448</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>99</v>
+        <v>449</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6866,123 +6897,120 @@
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>549</v>
+        <v>642</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>550</v>
+        <v>643</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>293</v>
+        <v>744</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F244" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F245" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>239</v>
+        <v>549</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F246" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="F247" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>698</v>
+        <v>295</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="F248" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="F248" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>100</v>
+        <v>240</v>
+      </c>
+      <c r="F249" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6990,44 +7018,44 @@
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>756</v>
+        <v>230</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>757</v>
+        <v>231</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>443</v>
+        <v>696</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>644</v>
+        <v>81</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7035,27 +7063,30 @@
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>507</v>
+        <v>748</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>245</v>
+        <v>443</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F254" s="14" t="s">
-        <v>258</v>
+        <v>444</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7063,10 +7094,10 @@
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>298</v>
+        <v>644</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>297</v>
+        <v>645</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>101</v>
@@ -7077,13 +7108,13 @@
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>646</v>
+        <v>507</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>100</v>
+        <v>508</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7091,13 +7122,13 @@
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>101</v>
+        <v>246</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7105,10 +7136,10 @@
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>630</v>
+        <v>298</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>631</v>
+        <v>297</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>101</v>
@@ -7119,13 +7150,13 @@
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>226</v>
+        <v>646</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F259" s="12" t="s">
-        <v>250</v>
+        <v>647</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7133,13 +7164,13 @@
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>524</v>
+        <v>234</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F260" s="14" t="s">
-        <v>258</v>
+        <v>235</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7147,13 +7178,10 @@
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>522</v>
+        <v>630</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>226</v>
+        <v>631</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>101</v>
@@ -7164,143 +7192,140 @@
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>648</v>
+        <v>524</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F263" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>585</v>
+        <v>522</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>586</v>
+        <v>224</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F265" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B266" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C266" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D266" s="17"/>
-      <c r="E266" s="17"/>
+      <c r="B266" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>649</v>
+      </c>
       <c r="F266" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G266" s="17"/>
     </row>
     <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>91</v>
+        <v>585</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F267" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>222</v>
+        <v>586</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F268" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="F268" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B269" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C269" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G269" s="17"/>
+    </row>
+    <row r="270" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7308,36 +7333,84 @@
         <v>90</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C274" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D274" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F271" s="4" t="s">
+      <c r="F274" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="17" t="s">
+    <row r="275" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B275" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C275" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D272" s="17" t="s">
+      <c r="D275" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E272" s="17"/>
-      <c r="F272" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G272" s="17"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G275" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD8C04-7187-4F7D-AEBA-76C1921E8978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CC1E9-0943-416B-8E2D-F1243AAEE080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="758">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -2104,6 +2104,12 @@
     <t>Fraction of EVs Used for Grid Balancing on Average Day, Fraction of EV Battery Capacity Used for Grid Balancing when EV is Used for Grid Balancing</t>
   </si>
   <si>
+    <t>DATAiRC</t>
+  </si>
+  <si>
+    <t>Demand-Altering Technology Assistance in RPS Compliance</t>
+  </si>
+  <si>
     <t>CCSTaSC</t>
   </si>
   <si>
@@ -2128,6 +2134,15 @@
     <t>Non-Battery Portion of New Vehicle Prices</t>
   </si>
   <si>
+    <t>SoEIaEbH</t>
+  </si>
+  <si>
+    <t>Share of Electricity Imports and Exports by Hour</t>
+  </si>
+  <si>
+    <t>Share of Electricity Imports by Hour, Share of Electricity Exports by Hour</t>
+  </si>
+  <si>
     <t>CO2 Capture Potential by Electricity Source, CO2 Capture Potential by Industry,CO2 Capture Potential by Hydrogen Sector</t>
   </si>
   <si>
@@ -2224,6 +2239,12 @@
     <t>BAU Heat Rates, BAU Start Year Capacities</t>
   </si>
   <si>
+    <t>BRACP</t>
+  </si>
+  <si>
+    <t>BAU RPS Alternative Compliance Payment</t>
+  </si>
+  <si>
     <t>Annual CapEx per Unit Capacity, BAU Construction Cost per Unit Capacity, Annual Fixed O&amp;M Cost per Unit Capacity, Variable O&amp;M Cost per Unit Elec Output, BAU Soft Costs per Unit Capacity, Annual CapEx per Unit Capacity, Spur Line Construction Cost per Unit Capacity, BAU CCS Retrofit Costs per Unit Capacity</t>
   </si>
   <si>
@@ -2239,6 +2260,9 @@
     <t>Capacity Supply Curve</t>
   </si>
   <si>
+    <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year</t>
+  </si>
+  <si>
     <t>Electricity Dispatch Weibull Parameter A, Electricity Dispatch Weibull Parameter B</t>
   </si>
   <si>
@@ -2282,60 +2306,6 @@
   </si>
   <si>
     <t>Policy Vehicle Types Subject to LCFS</t>
-  </si>
-  <si>
-    <t>FY</t>
-  </si>
-  <si>
-    <t>Future Year</t>
-  </si>
-  <si>
-    <t>If you change Initial Time, you need to update this file</t>
-  </si>
-  <si>
-    <t>RACP</t>
-  </si>
-  <si>
-    <t>RPS Alternative Compliance Payment</t>
-  </si>
-  <si>
-    <t>MaMHEIaE</t>
-  </si>
-  <si>
-    <t>Max and Min Hourly Electriicty Imports and Exports</t>
-  </si>
-  <si>
-    <t>BPMCRS</t>
-  </si>
-  <si>
-    <t>BAU Policy Mandated Capacity Retrofit Schedule</t>
-  </si>
-  <si>
-    <t>You know particular capacities of particular types of plants will be retrofit with CCUS in particular years (for example, they are already under construction), or you are modeling a region where power plant retrofit decisions are based on government mandates rather than being market-driven</t>
-  </si>
-  <si>
-    <t>PMCRS</t>
-  </si>
-  <si>
-    <t>Policy Mandated Capacity Retrofit Schedule</t>
-  </si>
-  <si>
-    <t>You are modeling a region where power plant CCUS retrofit decisions are based on government mandates rather than being market-driven, and you are setting this policy lever to alter the BAU mandates</t>
-  </si>
-  <si>
-    <t>goeeng</t>
-  </si>
-  <si>
-    <t>ERWD</t>
-  </si>
-  <si>
-    <t>Enhanced Rock Weathering Data</t>
-  </si>
-  <si>
-    <t>Enhanced Rock Weathering Potential, Enhanced Rock Weathering Energy Intensity, Enhanced Rock Weathering Amortized CapEx and OM</t>
-  </si>
-  <si>
-    <t>Capacity Supply Curve Capacity Cost Multiplier vs Share of Exisiting Capacity Built This Year, Capacity Supply Curve Minimum Buildable Capacity for Plant Types with No Exisiting Capacity, Capacity Supply Curve Share of Cost Effective Capacity Built in a Single Year, Capacity Supply Curve Share of Cost Effective Hybrid Capacity Built in a Single Year</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2434,11 +2404,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2495,13 +2476,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2815,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -3149,11 +3127,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G275"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A250" sqref="A250:F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,7 +3184,7 @@
       <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>541</v>
       </c>
     </row>
@@ -3322,10 +3300,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>99</v>
@@ -3715,13 +3693,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>101</v>
@@ -3732,10 +3710,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>100</v>
@@ -3752,7 +3730,7 @@
         <v>417</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>101</v>
@@ -3769,7 +3747,7 @@
         <v>410</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>101</v>
@@ -3780,10 +3758,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>101</v>
@@ -3794,10 +3772,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>100</v>
@@ -3811,7 +3789,7 @@
         <v>575</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>100</v>
@@ -3866,7 +3844,7 @@
         <v>142</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3959,16 +3937,16 @@
         <v>413</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4084,52 +4062,50 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>726</v>
-      </c>
+      <c r="D59" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="E59" s="17"/>
       <c r="F59" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="17" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>753</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60" s="17"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>99</v>
@@ -4140,13 +4116,13 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>99</v>
+        <v>42</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4154,46 +4130,49 @@
         <v>38</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>546</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>42</v>
+        <v>547</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="17" t="s">
+      <c r="B64" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="21" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G64" s="17" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4201,61 +4180,61 @@
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>658</v>
+        <v>181</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>328</v>
+        <v>604</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>604</v>
+        <v>687</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>101</v>
+        <v>688</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4263,33 +4242,33 @@
         <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>687</v>
+        <v>175</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
+        <v>595</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>320</v>
+        <v>596</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4297,109 +4276,103 @@
         <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>595</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>696</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>695</v>
+        <v>678</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>203</v>
+        <v>695</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>692</v>
+        <v>160</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>693</v>
+        <v>161</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>99</v>
@@ -4410,92 +4383,92 @@
         <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>661</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>661</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>662</v>
+        <v>52</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>46</v>
+        <v>738</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>731</v>
+        <v>513</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>513</v>
+        <v>740</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>733</v>
+        <v>690</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>101</v>
+        <v>691</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4531,10 +4504,10 @@
         <v>43</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>100</v>
@@ -4551,7 +4524,7 @@
         <v>171</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>99</v>
@@ -4585,7 +4558,7 @@
         <v>664</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>101</v>
@@ -4644,10 +4617,10 @@
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>101</v>
@@ -4664,7 +4637,7 @@
         <v>490</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>99</v>
@@ -4692,10 +4665,10 @@
         <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>100</v>
@@ -4706,10 +4679,10 @@
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>100</v>
@@ -4748,13 +4721,13 @@
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>755</v>
+        <v>597</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>99</v>
+        <v>598</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4762,10 +4735,10 @@
         <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>100</v>
@@ -4776,13 +4749,13 @@
         <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>665</v>
+        <v>48</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4790,140 +4763,137 @@
         <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>672</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>760</v>
+        <v>186</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>672</v>
+        <v>580</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>580</v>
+        <v>684</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>203</v>
+        <v>601</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>204</v>
+        <v>602</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>101</v>
+        <v>671</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4931,44 +4901,47 @@
         <v>43</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>601</v>
+        <v>700</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>602</v>
+        <v>701</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>605</v>
+        <v>702</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B114" s="2" t="s">
-        <v>670</v>
+        <v>452</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>452</v>
+        <v>682</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>100</v>
+        <v>683</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4976,13 +4949,13 @@
         <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>258</v>
+        <v>655</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4990,10 +4963,10 @@
         <v>43</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>100</v>
@@ -5004,27 +4977,27 @@
         <v>43</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>656</v>
+        <v>575</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>657</v>
+        <v>576</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>100</v>
+        <v>653</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5032,27 +5005,30 @@
         <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>653</v>
+        <v>600</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>599</v>
+        <v>749</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>597</v>
+        <v>750</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>751</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>99</v>
@@ -5063,51 +5039,51 @@
         <v>43</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B124" s="17" t="s">
+      <c r="B123" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C123" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D123" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E124" s="17"/>
-      <c r="F124" s="21" t="s">
+      <c r="E123" s="17"/>
+      <c r="F123" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G124" s="17" t="s">
+      <c r="G123" s="17" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5115,117 +5091,117 @@
         <v>275</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>710</v>
+        <v>634</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>634</v>
+        <v>272</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>271</v>
+        <v>418</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>418</v>
+        <v>183</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F130" s="4" t="s">
+      <c r="B130" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G131" s="17"/>
+      <c r="G130" s="17"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>99</v>
@@ -5236,47 +5212,44 @@
         <v>55</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>380</v>
+        <v>56</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>381</v>
+        <v>59</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>99</v>
+        <v>314</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5284,10 +5257,13 @@
         <v>55</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>313</v>
+        <v>526</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>314</v>
+        <v>527</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>101</v>
@@ -5298,16 +5274,13 @@
         <v>55</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>101</v>
+        <v>545</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5315,58 +5288,61 @@
         <v>55</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>610</v>
+        <v>57</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>101</v>
+        <v>393</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5374,16 +5350,16 @@
         <v>55</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5391,132 +5367,128 @@
         <v>55</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F143" s="16" t="s">
         <v>303</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>392</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F144" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>376</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F147" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E148" s="24"/>
+      <c r="F148" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="F148" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G148" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="B149" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="C149" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="F149" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="17" t="s">
-        <v>763</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="F150" s="19" t="s">
-        <v>99</v>
+      <c r="G148" s="24"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5524,58 +5496,61 @@
         <v>357</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>100</v>
+        <v>371</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5583,78 +5558,81 @@
         <v>357</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F155" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G156" s="17"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>357</v>
+        <v>63</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>365</v>
+        <v>206</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G158" s="17"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>206</v>
+        <v>667</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>250</v>
+        <v>668</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5662,16 +5640,19 @@
         <v>63</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>519</v>
+        <v>197</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F160" s="14" t="s">
-        <v>400</v>
+        <v>198</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F160" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5679,16 +5660,13 @@
         <v>63</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>667</v>
+        <v>326</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>100</v>
+        <v>327</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5696,47 +5674,44 @@
         <v>63</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F162" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>326</v>
+        <v>497</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>327</v>
+        <v>498</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5744,30 +5719,30 @@
         <v>63</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>65</v>
+        <v>516</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F166" s="16" t="s">
-        <v>303</v>
+        <v>517</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>345</v>
+        <v>518</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5775,41 +5750,41 @@
         <v>63</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>563</v>
+        <v>199</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>516</v>
+        <v>66</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>100</v>
@@ -5820,16 +5795,13 @@
         <v>63</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>400</v>
+        <v>280</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5837,13 +5809,13 @@
         <v>63</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>100</v>
+        <v>281</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5851,13 +5823,13 @@
         <v>63</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>101</v>
+        <v>282</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5865,10 +5837,10 @@
         <v>63</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>278</v>
+        <v>568</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>281</v>
+        <v>569</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>101</v>
@@ -5879,10 +5851,10 @@
         <v>63</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>279</v>
+        <v>477</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>282</v>
+        <v>476</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>100</v>
@@ -5893,72 +5865,75 @@
         <v>63</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>568</v>
+        <v>493</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F176" s="4" t="s">
+      <c r="B176" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="20" t="s">
         <v>100</v>
       </c>
+      <c r="G176" s="17"/>
     </row>
     <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>63</v>
+        <v>420</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G178" s="17"/>
-    </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>560</v>
+        <v>428</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>562</v>
+        <v>429</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>99</v>
@@ -5969,13 +5944,10 @@
         <v>420</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>716</v>
+        <v>430</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>715</v>
+        <v>431</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>99</v>
@@ -5986,10 +5958,10 @@
         <v>420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>99</v>
@@ -6000,24 +5972,30 @@
         <v>420</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>401</v>
+        <v>616</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>402</v>
+        <v>618</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>99</v>
@@ -6028,78 +6006,76 @@
         <v>420</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>616</v>
+        <v>422</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>434</v>
+        <v>531</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F188" s="16" t="s">
-        <v>303</v>
+        <v>530</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6107,48 +6083,44 @@
         <v>420</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F189" s="3"/>
+        <v>504</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F190" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>99</v>
+        <v>468</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6156,10 +6128,10 @@
         <v>420</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>501</v>
+        <v>423</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>502</v>
+        <v>425</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>101</v>
@@ -6170,10 +6142,10 @@
         <v>420</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>101</v>
@@ -6184,120 +6156,123 @@
         <v>420</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>423</v>
+        <v>542</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="F195" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F196" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F196" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+    <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F197" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G197" s="17"/>
+    </row>
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>420</v>
+        <v>93</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>570</v>
+        <v>209</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F198" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B199" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G199" s="17"/>
+        <v>210</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F201" s="12" t="s">
-        <v>250</v>
+        <v>214</v>
+      </c>
+      <c r="F201" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6305,30 +6280,27 @@
         <v>93</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F203" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>346</v>
+        <v>97</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6336,142 +6308,139 @@
         <v>93</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F204" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="B206" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G206" s="17"/>
     </row>
     <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F207" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B208" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G209" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F210" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="G208" s="17"/>
-    </row>
-    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>750</v>
+        <v>551</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B212" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G212" s="17" t="s">
-        <v>336</v>
+        <v>552</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6479,24 +6448,24 @@
         <v>73</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>635</v>
+        <v>75</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>101</v>
@@ -6507,10 +6476,10 @@
         <v>73</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>74</v>
+        <v>411</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>100</v>
@@ -6521,24 +6490,24 @@
         <v>73</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>75</v>
+        <v>680</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>101</v>
@@ -6549,38 +6518,41 @@
         <v>73</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>411</v>
+        <v>283</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>680</v>
+        <v>256</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>553</v>
+        <v>236</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>554</v>
+        <v>237</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>101</v>
@@ -6591,41 +6563,38 @@
         <v>73</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>283</v>
+        <v>621</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>256</v>
+        <v>623</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>379</v>
+        <v>233</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>101</v>
@@ -6636,10 +6605,10 @@
         <v>73</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>621</v>
+        <v>228</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>622</v>
+        <v>229</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>101</v>
@@ -6650,10 +6619,13 @@
         <v>73</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>624</v>
+        <v>638</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>101</v>
@@ -6664,10 +6636,10 @@
         <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>232</v>
+        <v>625</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>233</v>
+        <v>626</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>101</v>
@@ -6678,13 +6650,13 @@
         <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>228</v>
+        <v>718</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>101</v>
+        <v>719</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6692,16 +6664,13 @@
         <v>73</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F228" s="5" t="s">
-        <v>101</v>
+        <v>641</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -6709,13 +6678,13 @@
         <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F229" s="5" t="s">
-        <v>101</v>
+        <v>613</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -6723,13 +6692,13 @@
         <v>73</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>713</v>
+        <v>590</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>99</v>
+        <v>591</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -6737,27 +6706,30 @@
         <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>640</v>
+        <v>241</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>612</v>
+        <v>285</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>99</v>
+        <v>286</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -6765,13 +6737,13 @@
         <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>590</v>
+        <v>76</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -6779,30 +6751,27 @@
         <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>334</v>
+        <v>86</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6810,24 +6779,27 @@
         <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F236" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>77</v>
+        <v>627</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>85</v>
+        <v>628</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>101</v>
@@ -6838,13 +6810,13 @@
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>101</v>
+        <v>449</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -6852,10 +6824,10 @@
         <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>87</v>
+        <v>479</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>100</v>
@@ -6866,13 +6838,10 @@
         <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>101</v>
@@ -6883,13 +6852,13 @@
         <v>73</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>448</v>
+        <v>752</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>100</v>
+        <v>753</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6897,120 +6866,123 @@
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>642</v>
+        <v>549</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>643</v>
+        <v>550</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>744</v>
+        <v>293</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="F245" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>549</v>
+        <v>239</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="F246" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F247" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>295</v>
+        <v>698</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F248" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F249" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>335</v>
+        <v>89</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7018,44 +6990,44 @@
         <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>230</v>
+        <v>756</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>228</v>
+        <v>757</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>696</v>
+        <v>443</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>81</v>
+        <v>644</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>100</v>
+        <v>645</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7063,30 +7035,27 @@
         <v>73</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>748</v>
+        <v>507</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>377</v>
+        <v>246</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7094,10 +7063,10 @@
         <v>73</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>644</v>
+        <v>298</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>645</v>
+        <v>297</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>101</v>
@@ -7108,13 +7077,13 @@
         <v>73</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>507</v>
+        <v>646</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>101</v>
+        <v>647</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7122,13 +7091,13 @@
         <v>73</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F257" s="14" t="s">
-        <v>258</v>
+        <v>235</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7136,10 +7105,10 @@
         <v>73</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>298</v>
+        <v>630</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>297</v>
+        <v>631</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>101</v>
@@ -7150,13 +7119,13 @@
         <v>73</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>646</v>
+        <v>226</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>100</v>
+        <v>227</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7164,13 +7133,13 @@
         <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>234</v>
+        <v>524</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F260" s="5" t="s">
-        <v>101</v>
+        <v>525</v>
+      </c>
+      <c r="F260" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7178,10 +7147,13 @@
         <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>630</v>
+        <v>522</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>631</v>
+        <v>523</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>101</v>
@@ -7192,140 +7164,143 @@
         <v>73</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F262" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>524</v>
+        <v>648</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F263" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="F263" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>224</v>
+        <v>586</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F265" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F265" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>649</v>
-      </c>
+      <c r="B266" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C266" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D266" s="17"/>
+      <c r="E266" s="17"/>
       <c r="F266" s="20" t="s">
         <v>100</v>
       </c>
+      <c r="G266" s="17"/>
     </row>
     <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>585</v>
+        <v>91</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>586</v>
+        <v>222</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F268" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B269" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C269" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D269" s="17"/>
-      <c r="E269" s="17"/>
-      <c r="F269" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G269" s="17"/>
-    </row>
-    <row r="270" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>91</v>
+        <v>351</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>101</v>
+        <v>352</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7333,84 +7308,36 @@
         <v>90</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>222</v>
+        <v>565</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>221</v>
+        <v>566</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F271" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F272" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B275" s="17" t="s">
+      <c r="B272" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C272" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D275" s="17" t="s">
+      <c r="D272" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E275" s="17"/>
-      <c r="F275" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G275" s="17"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G272" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
